--- a/NEW HR/ESTIEBAR, ARISTOLE.xlsx
+++ b/NEW HR/ESTIEBAR, ARISTOLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1262,9 +1262,9 @@
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A56" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</f>
-        <v>25.372</v>
+        <v>26.622</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1435,7 +1435,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!B3</f>
-        <v>65.25</v>
+        <v>65.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3004,20 +3004,30 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="14"/>
+      <c r="A83" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="13"/>
       <c r="E83" s="10"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="12"/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="12">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="45">
+        <v>44994</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>

--- a/NEW HR/ESTIEBAR, ARISTOLE.xlsx
+++ b/NEW HR/ESTIEBAR, ARISTOLE.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>PL(7-0-0)</t>
+  </si>
+  <si>
+    <t>5/13-19/2023</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1270,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1431,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</f>
-        <v>26.622</v>
+        <v>27.872</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1435,7 +1441,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!B3</f>
-        <v>65.5</v>
+        <v>66.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3030,15 +3036,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
+      <c r="A84" s="24">
+        <v>45017</v>
+      </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="13"/>
       <c r="E84" s="10"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="9"/>
@@ -3046,8 +3056,12 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="13"/>
+      <c r="A85" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="C85" s="14"/>
       <c r="D85" s="13"/>
       <c r="E85" s="10"/>
@@ -3059,7 +3073,9 @@
       <c r="H85" s="12"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>

--- a/NEW HR/ESTIEBAR, ARISTOLE.xlsx
+++ b/NEW HR/ESTIEBAR, ARISTOLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>5/13-19/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
+  </si>
+  <si>
+    <t>5/20,22,23/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/24-27/2023</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1281,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1352,9 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -1431,7 +1445,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</f>
-        <v>27.872</v>
+        <v>23.872</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3079,7 +3093,9 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
-      <c r="B86" s="13"/>
+      <c r="B86" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C86" s="14"/>
       <c r="D86" s="13"/>
       <c r="E86" s="10"/>
@@ -3091,13 +3107,19 @@
       <c r="H86" s="12"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
-      <c r="B87" s="13"/>
+      <c r="B87" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="C87" s="14"/>
-      <c r="D87" s="13"/>
+      <c r="D87" s="13">
+        <v>4</v>
+      </c>
       <c r="E87" s="10"/>
       <c r="F87" s="13"/>
       <c r="G87" s="14" t="str">
@@ -3107,7 +3129,9 @@
       <c r="H87" s="13"/>
       <c r="I87" s="10"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="16"/>
+      <c r="K87" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
